--- a/ESPN sports website/IPL/Delhi Capitals/David Warner.xlsx
+++ b/ESPN sports website/IPL/Delhi Capitals/David Warner.xlsx
@@ -445,31 +445,31 @@
         <v>David Warner</v>
       </c>
       <c r="C2" t="str">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="D2" t="str">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E2" t="str">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F2" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="str">
-        <v>33.33</v>
+        <v>200.00</v>
       </c>
       <c r="H2" t="str">
-        <v>Lucknow Super Giants</v>
+        <v>Punjab Kings</v>
       </c>
       <c r="I2" t="str">
-        <v>DY Patil</v>
+        <v>Brabourne</v>
       </c>
       <c r="J2" t="str">
-        <v>April 07, 2022</v>
+        <v>April 20, 2022</v>
       </c>
       <c r="K2" t="str">
-        <v>Super Giants won by 6 wickets (with 2 balls remaining)</v>
+        <v>Capitals won by 9 wickets (with 57 balls remaining)</v>
       </c>
     </row>
     <row r="3">
@@ -550,31 +550,31 @@
         <v>David Warner</v>
       </c>
       <c r="C5" t="str">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="D5" t="str">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="E5" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F5" t="str">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G5" t="str">
-        <v>173.68</v>
+        <v>33.33</v>
       </c>
       <c r="H5" t="str">
-        <v>Royal Challengers Bangalore</v>
+        <v>Lucknow Super Giants</v>
       </c>
       <c r="I5" t="str">
-        <v>Wankhede</v>
+        <v>DY Patil</v>
       </c>
       <c r="J5" t="str">
-        <v>April 16, 2022</v>
+        <v>April 07, 2022</v>
       </c>
       <c r="K5" t="str">
-        <v>RCB won by 16 runs</v>
+        <v>Super Giants won by 6 wickets (with 2 balls remaining)</v>
       </c>
     </row>
     <row r="6">
@@ -585,31 +585,31 @@
         <v>David Warner</v>
       </c>
       <c r="C6" t="str">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D6" t="str">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E6" t="str">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F6" t="str">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G6" t="str">
-        <v>135.55</v>
+        <v>173.68</v>
       </c>
       <c r="H6" t="str">
-        <v>Kolkata Knight Riders</v>
+        <v>Royal Challengers Bangalore</v>
       </c>
       <c r="I6" t="str">
-        <v>Brabourne</v>
+        <v>Wankhede</v>
       </c>
       <c r="J6" t="str">
-        <v>April 10, 2022</v>
+        <v>April 16, 2022</v>
       </c>
       <c r="K6" t="str">
-        <v>Capitals won by 44 runs</v>
+        <v>RCB won by 16 runs</v>
       </c>
     </row>
     <row r="7">
@@ -620,31 +620,31 @@
         <v>David Warner</v>
       </c>
       <c r="C7" t="str">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D7" t="str">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E7" t="str">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F7" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="str">
-        <v>200.00</v>
+        <v>83.33</v>
       </c>
       <c r="H7" t="str">
-        <v>Rajasthan Royals</v>
+        <v>Mumbai Indians</v>
       </c>
       <c r="I7" t="str">
         <v>Wankhede</v>
       </c>
       <c r="J7" t="str">
-        <v>April 22, 2022</v>
+        <v>May 21, 2022</v>
       </c>
       <c r="K7" t="str">
-        <v>Royals won by 15 runs</v>
+        <v>Mumbai won by 5 wickets (with 5 balls remaining)</v>
       </c>
     </row>
     <row r="8">
@@ -690,31 +690,31 @@
         <v>David Warner</v>
       </c>
       <c r="C9" t="str">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="D9" t="str">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="E9" t="str">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F9" t="str">
         <v>0</v>
       </c>
       <c r="G9" t="str">
-        <v>161.53</v>
+        <v>75.00</v>
       </c>
       <c r="H9" t="str">
-        <v>Kolkata Knight Riders</v>
+        <v>Lucknow Super Giants</v>
       </c>
       <c r="I9" t="str">
         <v>Wankhede</v>
       </c>
       <c r="J9" t="str">
-        <v>April 28, 2022</v>
+        <v>May 01, 2022</v>
       </c>
       <c r="K9" t="str">
-        <v>Capitals won by 4 wickets (with 6 balls remaining)</v>
+        <v>Super Giants won by 6 runs</v>
       </c>
     </row>
     <row r="10">
@@ -725,31 +725,31 @@
         <v>David Warner</v>
       </c>
       <c r="C10" t="str">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="D10" t="str">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="E10" t="str">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F10" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G10" t="str">
-        <v>75.00</v>
+        <v>135.55</v>
       </c>
       <c r="H10" t="str">
-        <v>Lucknow Super Giants</v>
+        <v>Kolkata Knight Riders</v>
       </c>
       <c r="I10" t="str">
-        <v>Wankhede</v>
+        <v>Brabourne</v>
       </c>
       <c r="J10" t="str">
-        <v>May 01, 2022</v>
+        <v>April 10, 2022</v>
       </c>
       <c r="K10" t="str">
-        <v>Super Giants won by 6 runs</v>
+        <v>Capitals won by 44 runs</v>
       </c>
     </row>
     <row r="11">
@@ -760,13 +760,13 @@
         <v>David Warner</v>
       </c>
       <c r="C11" t="str">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="D11" t="str">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E11" t="str">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F11" t="str">
         <v>1</v>
@@ -775,16 +775,16 @@
         <v>200.00</v>
       </c>
       <c r="H11" t="str">
-        <v>Punjab Kings</v>
+        <v>Rajasthan Royals</v>
       </c>
       <c r="I11" t="str">
-        <v>Brabourne</v>
+        <v>Wankhede</v>
       </c>
       <c r="J11" t="str">
-        <v>April 20, 2022</v>
+        <v>April 22, 2022</v>
       </c>
       <c r="K11" t="str">
-        <v>Capitals won by 9 wickets (with 57 balls remaining)</v>
+        <v>Royals won by 15 runs</v>
       </c>
     </row>
     <row r="12">
@@ -795,31 +795,31 @@
         <v>David Warner</v>
       </c>
       <c r="C12" t="str">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="D12" t="str">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="E12" t="str">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F12" t="str">
         <v>0</v>
       </c>
       <c r="G12" t="str">
-        <v>83.33</v>
+        <v>161.53</v>
       </c>
       <c r="H12" t="str">
-        <v>Mumbai Indians</v>
+        <v>Kolkata Knight Riders</v>
       </c>
       <c r="I12" t="str">
         <v>Wankhede</v>
       </c>
       <c r="J12" t="str">
-        <v>May 21, 2022</v>
+        <v>April 28, 2022</v>
       </c>
       <c r="K12" t="str">
-        <v>Mumbai won by 5 wickets (with 5 balls remaining)</v>
+        <v>Capitals won by 4 wickets (with 6 balls remaining)</v>
       </c>
     </row>
     <row r="13">
